--- a/results/resultados.xlsx
+++ b/results/resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fbrev\Documents\Acadêmico\Simulações\covid-cnn\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5616C29-2253-4919-901D-CEA273D5132B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C7BB5E-56C2-45D1-B8A4-BBE5B68B1FAC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="15465" windowHeight="7095" firstSheet="1" activeTab="8" xr2:uid="{0909E323-572E-4CDB-984E-5B3530C510BC}"/>
   </bookViews>
@@ -7401,10 +7401,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDB691B0-2B61-47CA-BE9C-2F0AC1E32747}">
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="P2" sqref="P2:S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7415,7 +7415,7 @@
     <col min="16" max="16" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="69" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="69" t="s">
         <v>164</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>200</v>
       </c>
@@ -7442,6 +7442,7 @@
       <c r="D2" s="68" t="s">
         <v>199</v>
       </c>
+      <c r="E2" s="55"/>
       <c r="F2" s="3" t="s">
         <v>200</v>
       </c>
@@ -7454,6 +7455,7 @@
       <c r="I2" s="68" t="s">
         <v>199</v>
       </c>
+      <c r="J2" s="55"/>
       <c r="K2" s="3" t="s">
         <v>200</v>
       </c>
@@ -7466,6 +7468,7 @@
       <c r="N2" s="68" t="s">
         <v>199</v>
       </c>
+      <c r="O2" s="55"/>
       <c r="P2" s="3" t="s">
         <v>200</v>
       </c>
@@ -7478,9 +7481,10 @@
       <c r="S2" s="68" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="T2" s="55"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="69" t="s">
         <v>41</v>
       </c>
       <c r="B3" s="28">
@@ -7505,6 +7509,7 @@
       <c r="I3" s="28">
         <v>0.97</v>
       </c>
+      <c r="J3" s="55"/>
       <c r="K3" s="69" t="s">
         <v>19</v>
       </c>
@@ -7517,6 +7522,7 @@
       <c r="N3" s="28">
         <v>1</v>
       </c>
+      <c r="O3" s="55"/>
       <c r="P3" s="69" t="s">
         <v>41</v>
       </c>
@@ -7529,9 +7535,10 @@
       <c r="S3" s="28">
         <v>0.98119999999999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="T3" s="55"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="69" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="28">
@@ -7556,6 +7563,7 @@
       <c r="I4" s="28">
         <v>0.96</v>
       </c>
+      <c r="J4" s="55"/>
       <c r="K4" s="69" t="s">
         <v>16</v>
       </c>
@@ -7568,6 +7576,7 @@
       <c r="N4" s="28">
         <v>1</v>
       </c>
+      <c r="O4" s="55"/>
       <c r="P4" s="69" t="s">
         <v>10</v>
       </c>
@@ -7580,9 +7589,10 @@
       <c r="S4" s="28">
         <v>0.97560000000000002</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="T4" s="55"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="69" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="28">
@@ -7607,6 +7617,7 @@
       <c r="I5" s="28">
         <v>0.95899999999999996</v>
       </c>
+      <c r="J5" s="55"/>
       <c r="K5" s="69" t="s">
         <v>18</v>
       </c>
@@ -7619,6 +7630,7 @@
       <c r="N5" s="28">
         <v>0.999</v>
       </c>
+      <c r="O5" s="55"/>
       <c r="P5" s="69" t="s">
         <v>38</v>
       </c>
@@ -7631,9 +7643,10 @@
       <c r="S5" s="28">
         <v>0.97489999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="T5" s="55"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="69" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="28">
@@ -7658,6 +7671,7 @@
       <c r="I6" s="28">
         <v>0.95199999999999996</v>
       </c>
+      <c r="J6" s="55"/>
       <c r="K6" s="69" t="s">
         <v>6</v>
       </c>
@@ -7670,6 +7684,7 @@
       <c r="N6" s="28">
         <v>0.99890000000000001</v>
       </c>
+      <c r="O6" s="55"/>
       <c r="P6" s="69" t="s">
         <v>17</v>
       </c>
@@ -7682,9 +7697,10 @@
       <c r="S6" s="28">
         <v>0.97440000000000004</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="T6" s="55"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="69" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="28">
@@ -7709,6 +7725,7 @@
       <c r="I7" s="28">
         <v>0.95099999999999996</v>
       </c>
+      <c r="J7" s="55"/>
       <c r="K7" s="69" t="s">
         <v>40</v>
       </c>
@@ -7721,6 +7738,7 @@
       <c r="N7" s="28">
         <v>0.99890000000000001</v>
       </c>
+      <c r="O7" s="55"/>
       <c r="P7" s="69" t="s">
         <v>18</v>
       </c>
@@ -7733,9 +7751,10 @@
       <c r="S7" s="28">
         <v>0.97009999999999996</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="T7" s="55"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="69" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="28">
@@ -7760,6 +7779,7 @@
       <c r="I8" s="28">
         <v>0.94699999999999995</v>
       </c>
+      <c r="J8" s="55"/>
       <c r="K8" s="69" t="s">
         <v>42</v>
       </c>
@@ -7772,6 +7792,7 @@
       <c r="N8" s="28">
         <v>0.99890000000000001</v>
       </c>
+      <c r="O8" s="55"/>
       <c r="P8" s="69" t="s">
         <v>4</v>
       </c>
@@ -7784,9 +7805,10 @@
       <c r="S8" s="28">
         <v>0.96989999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="T8" s="55"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="69" t="s">
         <v>44</v>
       </c>
       <c r="B9" s="28">
@@ -7811,6 +7833,7 @@
       <c r="I9" s="28">
         <v>0.94299999999999995</v>
       </c>
+      <c r="J9" s="55"/>
       <c r="K9" s="69" t="s">
         <v>34</v>
       </c>
@@ -7823,6 +7846,7 @@
       <c r="N9" s="28">
         <v>0.99880000000000002</v>
       </c>
+      <c r="O9" s="55"/>
       <c r="P9" s="69" t="s">
         <v>44</v>
       </c>
@@ -7835,9 +7859,10 @@
       <c r="S9" s="28">
         <v>0.96899999999999997</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="T9" s="55"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="69" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="28">
@@ -7862,6 +7887,7 @@
       <c r="I10" s="28">
         <v>0.94199999999999995</v>
       </c>
+      <c r="J10" s="55"/>
       <c r="K10" s="69" t="s">
         <v>17</v>
       </c>
@@ -7874,6 +7900,7 @@
       <c r="N10" s="28">
         <v>0.99790000000000001</v>
       </c>
+      <c r="O10" s="55"/>
       <c r="P10" s="69" t="s">
         <v>42</v>
       </c>
@@ -7886,9 +7913,10 @@
       <c r="S10" s="28">
         <v>0.96830000000000005</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="T10" s="55"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="69" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="28">
@@ -7913,6 +7941,7 @@
       <c r="I11" s="28">
         <v>0.94</v>
       </c>
+      <c r="J11" s="55"/>
       <c r="K11" s="69" t="s">
         <v>37</v>
       </c>
@@ -7925,6 +7954,7 @@
       <c r="N11" s="28">
         <v>0.997</v>
       </c>
+      <c r="O11" s="55"/>
       <c r="P11" s="69" t="s">
         <v>37</v>
       </c>
@@ -7937,9 +7967,10 @@
       <c r="S11" s="28">
         <v>0.96789999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="T11" s="55"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="69" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="28">
@@ -7964,6 +7995,7 @@
       <c r="I12" s="28">
         <v>0.93700000000000006</v>
       </c>
+      <c r="J12" s="55"/>
       <c r="K12" s="69" t="s">
         <v>20</v>
       </c>
@@ -7976,6 +8008,7 @@
       <c r="N12" s="28">
         <v>0.99660000000000004</v>
       </c>
+      <c r="O12" s="55"/>
       <c r="P12" s="69" t="s">
         <v>35</v>
       </c>
@@ -7988,9 +8021,10 @@
       <c r="S12" s="28">
         <v>0.96440000000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="T12" s="55"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="69" t="s">
         <v>40</v>
       </c>
       <c r="B13" s="28">
@@ -8015,6 +8049,7 @@
       <c r="I13" s="28">
         <v>0.92700000000000005</v>
       </c>
+      <c r="J13" s="55"/>
       <c r="K13" s="69" t="s">
         <v>43</v>
       </c>
@@ -8027,6 +8062,7 @@
       <c r="N13" s="28">
         <v>0.996</v>
       </c>
+      <c r="O13" s="55"/>
       <c r="P13" s="69" t="s">
         <v>40</v>
       </c>
@@ -8039,9 +8075,10 @@
       <c r="S13" s="28">
         <v>0.96160000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="T13" s="55"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="69" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="28">
@@ -8066,6 +8103,7 @@
       <c r="I14" s="28">
         <v>0.92400000000000004</v>
       </c>
+      <c r="J14" s="55"/>
       <c r="K14" s="69" t="s">
         <v>36</v>
       </c>
@@ -8078,6 +8116,7 @@
       <c r="N14" s="28">
         <v>0.99590000000000001</v>
       </c>
+      <c r="O14" s="55"/>
       <c r="P14" s="69" t="s">
         <v>19</v>
       </c>
@@ -8090,9 +8129,10 @@
       <c r="S14" s="28">
         <v>0.95989999999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="T14" s="55"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="69" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="28">
@@ -8117,6 +8157,7 @@
       <c r="I15" s="28">
         <v>0.92300000000000004</v>
       </c>
+      <c r="J15" s="55"/>
       <c r="K15" s="69" t="s">
         <v>5</v>
       </c>
@@ -8129,6 +8170,7 @@
       <c r="N15" s="28">
         <v>0.99580000000000002</v>
       </c>
+      <c r="O15" s="55"/>
       <c r="P15" s="69" t="s">
         <v>6</v>
       </c>
@@ -8141,9 +8183,10 @@
       <c r="S15" s="28">
         <v>0.95579999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="T15" s="55"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="69" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="28">
@@ -8168,6 +8211,7 @@
       <c r="I16" s="28">
         <v>0.91700000000000004</v>
       </c>
+      <c r="J16" s="55"/>
       <c r="K16" s="69" t="s">
         <v>35</v>
       </c>
@@ -8180,6 +8224,7 @@
       <c r="N16" s="28">
         <v>0.99470000000000003</v>
       </c>
+      <c r="O16" s="55"/>
       <c r="P16" s="69" t="s">
         <v>9</v>
       </c>
@@ -8192,9 +8237,10 @@
       <c r="S16" s="28">
         <v>0.95509999999999995</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="T16" s="55"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="69" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="28">
@@ -8219,6 +8265,7 @@
       <c r="I17" s="28">
         <v>0.91</v>
       </c>
+      <c r="J17" s="55"/>
       <c r="K17" s="69" t="s">
         <v>39</v>
       </c>
@@ -8231,6 +8278,7 @@
       <c r="N17" s="28">
         <v>0.99350000000000005</v>
       </c>
+      <c r="O17" s="55"/>
       <c r="P17" s="69" t="s">
         <v>16</v>
       </c>
@@ -8243,9 +8291,10 @@
       <c r="S17" s="28">
         <v>0.95199999999999996</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="T17" s="55"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="69" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="28">
@@ -8270,6 +8319,7 @@
       <c r="I18" s="28">
         <v>0.90900000000000003</v>
       </c>
+      <c r="J18" s="55"/>
       <c r="K18" s="69" t="s">
         <v>41</v>
       </c>
@@ -8282,6 +8332,7 @@
       <c r="N18" s="28">
         <v>0.99299999999999999</v>
       </c>
+      <c r="O18" s="55"/>
       <c r="P18" s="69" t="s">
         <v>5</v>
       </c>
@@ -8294,9 +8345,10 @@
       <c r="S18" s="28">
         <v>0.95009999999999994</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="T18" s="55"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="69" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="28">
@@ -8321,6 +8373,7 @@
       <c r="I19" s="28">
         <v>0.90900000000000003</v>
       </c>
+      <c r="J19" s="55"/>
       <c r="K19" s="69" t="s">
         <v>44</v>
       </c>
@@ -8333,6 +8386,7 @@
       <c r="N19" s="28">
         <v>0.99270000000000003</v>
       </c>
+      <c r="O19" s="55"/>
       <c r="P19" s="69" t="s">
         <v>36</v>
       </c>
@@ -8345,9 +8399,10 @@
       <c r="S19" s="28">
         <v>0.94969999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="T19" s="55"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="69" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="28">
@@ -8372,6 +8427,7 @@
       <c r="I20" s="28">
         <v>0.90300000000000002</v>
       </c>
+      <c r="J20" s="55"/>
       <c r="K20" s="69" t="s">
         <v>38</v>
       </c>
@@ -8384,6 +8440,7 @@
       <c r="N20" s="28">
         <v>0.9919</v>
       </c>
+      <c r="O20" s="55"/>
       <c r="P20" s="69" t="s">
         <v>39</v>
       </c>
@@ -8396,8 +8453,9 @@
       <c r="S20" s="28">
         <v>0.94569999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T20" s="55"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="69" t="s">
         <v>34</v>
       </c>
@@ -8423,6 +8481,7 @@
       <c r="I21" s="28">
         <v>0.88300000000000001</v>
       </c>
+      <c r="J21" s="55"/>
       <c r="K21" s="69" t="s">
         <v>10</v>
       </c>
@@ -8435,6 +8494,7 @@
       <c r="N21" s="28">
         <v>0.99180000000000001</v>
       </c>
+      <c r="O21" s="55"/>
       <c r="P21" s="69" t="s">
         <v>34</v>
       </c>
@@ -8447,8 +8507,9 @@
       <c r="S21" s="28">
         <v>0.93700000000000006</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T21" s="55"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="69" t="s">
         <v>20</v>
       </c>
@@ -8474,6 +8535,7 @@
       <c r="I22" s="28">
         <v>0.85899999999999999</v>
       </c>
+      <c r="J22" s="55"/>
       <c r="K22" s="69" t="s">
         <v>4</v>
       </c>
@@ -8486,6 +8548,7 @@
       <c r="N22" s="28">
         <v>0.98960000000000004</v>
       </c>
+      <c r="O22" s="55"/>
       <c r="P22" s="69" t="s">
         <v>20</v>
       </c>
@@ -8498,8 +8561,9 @@
       <c r="S22" s="28">
         <v>0.92259999999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T22" s="55"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="69" t="s">
         <v>43</v>
       </c>
@@ -8525,6 +8589,7 @@
       <c r="I23" s="28">
         <v>0.70899999999999996</v>
       </c>
+      <c r="J23" s="55"/>
       <c r="K23" s="69" t="s">
         <v>9</v>
       </c>
@@ -8537,6 +8602,7 @@
       <c r="N23" s="28">
         <v>0.98919999999999997</v>
       </c>
+      <c r="O23" s="55"/>
       <c r="P23" s="69" t="s">
         <v>43</v>
       </c>
@@ -8549,11 +8615,25 @@
       <c r="S23" s="28">
         <v>0.82120000000000004</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T23" s="55"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="55"/>
       <c r="B24" s="55"/>
       <c r="C24" s="55"/>
       <c r="D24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
     </row>
   </sheetData>
   <sortState ref="P3:S23">
